--- a/01_Linear/Nachtfliegen_01.xlsx
+++ b/01_Linear/Nachtfliegen_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/modules/01 Linear/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A777EF-23B0-454F-9F4F-FE64DCD8851B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41088901-DEBD-8648-8926-C3D196DFDC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="-17720" windowWidth="26420" windowHeight="17420" xr2:uid="{5F676AC7-A13B-AB42-A588-3E89E1D3E02D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29080" windowHeight="19320" activeTab="7" xr2:uid="{5F676AC7-A13B-AB42-A588-3E89E1D3E02D}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="9" r:id="rId1"/>
@@ -20,19 +20,107 @@
     <sheet name="Quad_19_68" sheetId="10" r:id="rId5"/>
     <sheet name="Quad_19_68_Solve" sheetId="16" r:id="rId6"/>
     <sheet name="QuadTwo" sheetId="12" r:id="rId7"/>
-    <sheet name="QuadTwo_B" sheetId="13" r:id="rId8"/>
-    <sheet name="QuadTwo_Solve" sheetId="14" r:id="rId9"/>
-    <sheet name="QuadTwo_Plants" sheetId="15" r:id="rId10"/>
+    <sheet name="Quad2Solve" sheetId="18" r:id="rId8"/>
+    <sheet name="Quad2Plants" sheetId="15" r:id="rId9"/>
+    <sheet name="Quad2Plants_Solve" sheetId="19" r:id="rId10"/>
+    <sheet name="Quad3_Plants_Solve (2)" sheetId="20" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">Quad2Plants_Solve!$B$9:$C$9</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">Quad2Solve!$B$9:$C$9</definedName>
+    <definedName name="solver_adj" localSheetId="10" hidden="1">'Quad3_Plants_Solve (2)'!$B$9:$C$9</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">Quad2Plants_Solve!$D$6:$D$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">Quad2Solve!$D$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="10" hidden="1">'Quad3_Plants_Solve (2)'!$D$6:$D$7</definedName>
+    <definedName name="solver_lin" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="10" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="10" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="9" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="9" hidden="1">QuadTwo_Plants!$H$6</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">Quad2Plants!$H$6</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">Quad2Plants_Solve!$D$4</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">Quad2Solve!$D$4</definedName>
+    <definedName name="solver_opt" localSheetId="10" hidden="1">'Quad3_Plants_Solve (2)'!$D$4</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">Quad2Plants_Solve!$F$6:$F$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">Quad2Solve!$F$6</definedName>
+    <definedName name="solver_rhs1" localSheetId="10" hidden="1">'Quad3_Plants_Solve (2)'!$F$6:$F$7</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="10" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="10" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
   <si>
     <t>Produce</t>
   </si>
@@ -254,6 +342,24 @@
   </si>
   <si>
     <t>Binding</t>
+  </si>
+  <si>
+    <t>Plant Hours</t>
+  </si>
+  <si>
+    <t>Experiment with Plant Hours requirements</t>
+  </si>
+  <si>
+    <t>NonNegativity: Don't Break The Universe</t>
+  </si>
+  <si>
+    <t>Break the Universe</t>
+  </si>
+  <si>
+    <t>Henceforth, what is a Column represent?</t>
+  </si>
+  <si>
+    <t>sumproduct()</t>
   </si>
 </sst>
 </file>
@@ -288,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +419,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -327,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,6 +468,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -676,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB1C53-D347-A546-AB8E-B5C3ABC7DB3F}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,57 +869,62 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>65</v>
       </c>
     </row>
@@ -811,7 +934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD5248E-697A-3745-8E7E-34C28C2D58CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F98E62-0470-CF40-8AC6-76E0AF3013A3}">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
@@ -833,23 +956,23 @@
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -863,17 +986,17 @@
       </c>
       <c r="D4" s="11">
         <f>SUMPRODUCT(B4:C4,$B$9:$C$9)</f>
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -883,11 +1006,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="2">
+      <c r="D6" s="12">
         <f t="shared" ref="D6:D7" si="0">SUMPRODUCT(B6:C6,$B$9:$C$9)</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="10">
@@ -902,11 +1025,11 @@
       <c r="C7" s="10">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="10">
@@ -917,25 +1040,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D10" s="2"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -944,25 +1067,25 @@
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -971,14 +1094,246 @@
       <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B573BF7D-CA5A-954C-A025-2B2320027208}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11">
+        <f>SUMPRODUCT(B4:C4,$B$9:$C$9)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12">
+        <f t="shared" ref="D6:D7" si="0">SUMPRODUCT(B6:C6,$B$9:$C$9)</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="10">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
@@ -1875,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851DE1DD-8A5A-7949-9D67-BD6CE2966A84}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B11" sqref="B11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1886,13 +2241,13 @@
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="4.5" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="4" max="5" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1900,10 +2255,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1911,8 +2266,9 @@
         <v>37</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1923,24 +2279,26 @@
         <v>5</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
@@ -1948,29 +2306,30 @@
       <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="2"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1978,20 +2337,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -1999,30 +2360,35 @@
         <v>42</v>
       </c>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -2088,11 +2454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BD61CE-FF45-024F-8EF7-B77C884E514D}">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665127C3-8C92-4745-85CA-15B5942474B8}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2100,13 +2466,14 @@
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="4.5" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2114,21 +2481,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2138,155 +2504,204 @@
       <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="13">
+        <f>SUMPRODUCT(B4:C4,$B$9:$C$9)</f>
+        <v>137</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" ref="D6" si="0">SUMPRODUCT(B6:C6,$B$9:$C$9)</f>
+        <v>68</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="10">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="12">
+        <f>SUM(B9:C9)</f>
+        <v>70</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -2304,11 +2719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C538CBC-3A1C-6A4E-9367-60EE25671637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD5248E-697A-3745-8E7E-34C28C2D58CC}">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2316,9 +2731,9 @@
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2326,8 +2741,8 @@
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>37</v>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2354,28 +2769,32 @@
       <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="11">
+        <f>SUMPRODUCT(B4:C4,$B$9:$C$9)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D7" si="0">SUMPRODUCT(B6:C6,$B$9:$C$9)</f>
+        <v>1</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
@@ -2384,12 +2803,23 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="10">
+        <v>12</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
@@ -2436,9 +2866,11 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -2447,12 +2879,14 @@
       <c r="B15" t="s">
         <v>48</v>
       </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="C16" t="s">
         <v>49</v>
       </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>

--- a/01_Linear/Nachtfliegen_01.xlsx
+++ b/01_Linear/Nachtfliegen_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41088901-DEBD-8648-8926-C3D196DFDC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F42C1A-930C-CC4D-80D7-32FCC8967A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29080" windowHeight="19320" activeTab="7" xr2:uid="{5F676AC7-A13B-AB42-A588-3E89E1D3E02D}"/>
+    <workbookView xWindow="1840" yWindow="1400" windowWidth="19400" windowHeight="14080" activeTab="4" xr2:uid="{5F676AC7-A13B-AB42-A588-3E89E1D3E02D}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="9" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
@@ -45,6 +46,7 @@
     <definedName name="solver_lhs1" localSheetId="9" hidden="1">Quad2Plants_Solve!$D$6:$D$7</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">Quad2Solve!$D$6</definedName>
     <definedName name="solver_lhs1" localSheetId="10" hidden="1">'Quad3_Plants_Solve (2)'!$D$6:$D$7</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="7" hidden="1">1</definedName>
@@ -61,6 +63,7 @@
     <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="7" hidden="1">2</definedName>
@@ -68,10 +71,12 @@
     <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Quad_19_68!$H$3</definedName>
     <definedName name="solver_opt" localSheetId="8" hidden="1">Quad2Plants!$H$6</definedName>
     <definedName name="solver_opt" localSheetId="9" hidden="1">Quad2Plants_Solve!$D$4</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">Quad2Solve!$D$4</definedName>
@@ -109,14 +114,17 @@
     <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
@@ -138,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
   <si>
     <t>Produce</t>
   </si>
@@ -360,6 +368,15 @@
   </si>
   <si>
     <t>sumproduct()</t>
+  </si>
+  <si>
+    <t>Plant is limited to 68</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
   </si>
 </sst>
 </file>
@@ -1881,15 +1898,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CC6858-C8F9-6D44-B2B1-7C4941F0881D}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="2.83203125" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
@@ -1914,7 +1931,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
@@ -1932,7 +1949,7 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1953,22 +1970,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="8">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B10" s="9">
         <f>B9*B4</f>
-        <v>136</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2457,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665127C3-8C92-4745-85CA-15B5942474B8}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_Linear/Nachtfliegen_01.xlsx
+++ b/01_Linear/Nachtfliegen_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F42C1A-930C-CC4D-80D7-32FCC8967A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42328DF9-E5BB-EE46-A6B6-BF111EE4BAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1400" windowWidth="19400" windowHeight="14080" activeTab="4" xr2:uid="{5F676AC7-A13B-AB42-A588-3E89E1D3E02D}"/>
+    <workbookView xWindow="260" yWindow="1400" windowWidth="28180" windowHeight="17960" firstSheet="3" activeTab="10" xr2:uid="{5F676AC7-A13B-AB42-A588-3E89E1D3E02D}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="9" r:id="rId1"/>
@@ -23,12 +23,13 @@
     <sheet name="Quad2Solve" sheetId="18" r:id="rId8"/>
     <sheet name="Quad2Plants" sheetId="15" r:id="rId9"/>
     <sheet name="Quad2Plants_Solve" sheetId="19" r:id="rId10"/>
-    <sheet name="Quad3_Plants_Solve (2)" sheetId="20" r:id="rId11"/>
+    <sheet name="Quad3_Plants_3Plants" sheetId="20" r:id="rId11"/>
+    <sheet name="Sensitivity Report 1" sheetId="21" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="9" hidden="1">Quad2Plants_Solve!$B$9:$C$9</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">Quad2Solve!$B$9:$C$9</definedName>
-    <definedName name="solver_adj" localSheetId="10" hidden="1">'Quad3_Plants_Solve (2)'!$B$9:$C$9</definedName>
+    <definedName name="solver_adj" localSheetId="10" hidden="1">Quad3_Plants_3Plants!$B$10:$C$10</definedName>
     <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
@@ -45,7 +46,7 @@
     <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="9" hidden="1">Quad2Plants_Solve!$D$6:$D$7</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">Quad2Solve!$D$6</definedName>
-    <definedName name="solver_lhs1" localSheetId="10" hidden="1">'Quad3_Plants_Solve (2)'!$D$6:$D$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="10" hidden="1">Quad3_Plants_3Plants!$D$6:$D$8</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="9" hidden="1">1</definedName>
@@ -80,7 +81,7 @@
     <definedName name="solver_opt" localSheetId="8" hidden="1">Quad2Plants!$H$6</definedName>
     <definedName name="solver_opt" localSheetId="9" hidden="1">Quad2Plants_Solve!$D$4</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">Quad2Solve!$D$4</definedName>
-    <definedName name="solver_opt" localSheetId="10" hidden="1">'Quad3_Plants_Solve (2)'!$D$4</definedName>
+    <definedName name="solver_opt" localSheetId="10" hidden="1">Quad3_Plants_3Plants!$D$4</definedName>
     <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
@@ -92,7 +93,7 @@
     <definedName name="solver_rel1" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="9" hidden="1">Quad2Plants_Solve!$F$6:$F$7</definedName>
     <definedName name="solver_rhs1" localSheetId="7" hidden="1">Quad2Solve!$F$6</definedName>
-    <definedName name="solver_rhs1" localSheetId="10" hidden="1">'Quad3_Plants_Solve (2)'!$F$6:$F$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="10" hidden="1">Quad3_Plants_3Plants!$F$6:$F$8</definedName>
     <definedName name="solver_rlx" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="10" hidden="1">1</definedName>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="111">
   <si>
     <t>Produce</t>
   </si>
@@ -377,6 +378,108 @@
   </si>
   <si>
     <t>Total Costs</t>
+  </si>
+  <si>
+    <t>Plant 3</t>
+  </si>
+  <si>
+    <t>(after Hillier &amp; Hillier)</t>
+  </si>
+  <si>
+    <t>3 Plants</t>
+  </si>
+  <si>
+    <t>binding constraints</t>
+  </si>
+  <si>
+    <t>binding</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.31 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [Nachtfliegen_01.xlsx]Quad3_Plants_Solve (2)</t>
+  </si>
+  <si>
+    <t>Report Created: 1/28/20 8:23:43 PM</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>$B$10</t>
+  </si>
+  <si>
+    <t>Produce Hours</t>
+  </si>
+  <si>
+    <t>$C$10</t>
+  </si>
+  <si>
+    <t>Produce QuadTwo</t>
+  </si>
+  <si>
+    <t>$D$6</t>
+  </si>
+  <si>
+    <t>Plant 1 Plants</t>
+  </si>
+  <si>
+    <t>$D$7</t>
+  </si>
+  <si>
+    <t>Plant 2 Plants</t>
+  </si>
+  <si>
+    <t>$D$8</t>
+  </si>
+  <si>
+    <t>Plant 3 Plants</t>
+  </si>
+  <si>
+    <t>Plant 2 13hrs, 14…</t>
   </si>
 </sst>
 </file>
@@ -387,7 +490,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,6 +509,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -451,12 +568,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -496,6 +651,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -955,7 +1122,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,10 +1175,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
@@ -1082,22 +1249,16 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1184,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B573BF7D-CA5A-954C-A025-2B2320027208}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,21 +1360,26 @@
     <col min="5" max="5" width="3.33203125" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="11" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
@@ -1223,31 +1389,31 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
-        <f>SUMPRODUCT(B4:C4,$B$9:$C$9)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="13">
+        <f>SUMPRODUCT(B4:C4,$B$10:$C$10)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -1256,17 +1422,17 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="12">
-        <f t="shared" ref="D6:D7" si="0">SUMPRODUCT(B6:C6,$B$9:$C$9)</f>
-        <v>16</v>
+        <f t="shared" ref="D6:D8" si="0">SUMPRODUCT(B6:C6,$B$10:$C$10)</f>
+        <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1285,131 +1451,467 @@
         <v>12</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="8">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="10">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6</v>
+      </c>
       <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="20">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="20">
+        <v>36.5</v>
+      </c>
+      <c r="D17">
+        <v>1.667</v>
+      </c>
+      <c r="E17">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="20">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>1.3</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="20">
+        <v>40.5</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="20">
         <v>42</v>
       </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" s="20">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" s="20">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="20">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:C5"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C00A2F-2699-9242-AC2D-597E973BB0E8}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="H9" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>5</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>4</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1E+30</v>
+      </c>
+      <c r="H15" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="16">
+        <v>15</v>
+      </c>
+      <c r="G16" s="16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="17">
+        <v>18</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
+        <v>18</v>
+      </c>
+      <c r="G17" s="17">
+        <v>9</v>
+      </c>
+      <c r="H17" s="17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1898,7 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CC6858-C8F9-6D44-B2B1-7C4941F0881D}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2244,7 +2746,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2300,10 +2802,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2"/>
       <c r="E5" s="12"/>
     </row>
@@ -2466,10 +2968,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665127C3-8C92-4745-85CA-15B5942474B8}">
-  <dimension ref="A1:I34"/>
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2524,10 +3029,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
@@ -2625,28 +3130,25 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2655,38 +3157,44 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>1</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" t="s">
-        <v>71</v>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22">
+      <c r="B22" t="s">
         <v>71</v>
-      </c>
-      <c r="C22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
+      <c r="B23">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
@@ -2720,6 +3228,9 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2734,7 +3245,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2787,10 +3298,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -2881,6 +3392,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
